--- a/Data/Game_400876570_CLEM_ALA_.xlsx
+++ b/Data/Game_400876570_CLEM_ALA_.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Game_400876570_CLEM_ALA_" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="56">
   <si>
     <t>outcome</t>
   </si>
@@ -73,6 +73,120 @@
   </si>
   <si>
     <t>End of Game</t>
+  </si>
+  <si>
+    <t>driving_team</t>
+  </si>
+  <si>
+    <t>num_pplays</t>
+  </si>
+  <si>
+    <t>num_r_plays</t>
+  </si>
+  <si>
+    <t>play_seq</t>
+  </si>
+  <si>
+    <t>starting_time</t>
+  </si>
+  <si>
+    <t>starting_position</t>
+  </si>
+  <si>
+    <t>yardage_seq</t>
+  </si>
+  <si>
+    <t>starting_side</t>
+  </si>
+  <si>
+    <t>Own</t>
+  </si>
+  <si>
+    <t>P|R|P</t>
+  </si>
+  <si>
+    <t>R|P|P|P|R|P|R</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>14|54</t>
+  </si>
+  <si>
+    <t>13|24</t>
+  </si>
+  <si>
+    <t>10|21</t>
+  </si>
+  <si>
+    <t>R|R|P|P|R</t>
+  </si>
+  <si>
+    <t>9|23</t>
+  </si>
+  <si>
+    <t>R|P|P|R|R|P</t>
+  </si>
+  <si>
+    <t>6|26</t>
+  </si>
+  <si>
+    <t>R|P|R|P|P|R|R|R|R|P</t>
+  </si>
+  <si>
+    <t>2|30</t>
+  </si>
+  <si>
+    <t>R|P|R</t>
+  </si>
+  <si>
+    <t>1|50</t>
+  </si>
+  <si>
+    <t>Opp</t>
+  </si>
+  <si>
+    <t>R|P|P</t>
+  </si>
+  <si>
+    <t>|-2|0|0</t>
+  </si>
+  <si>
+    <t>|0|-1|3</t>
+  </si>
+  <si>
+    <t>|12|-4|5|1|5|3|0</t>
+  </si>
+  <si>
+    <t>|20|4|15|-5|25</t>
+  </si>
+  <si>
+    <t>|0|8|6|3|3|0</t>
+  </si>
+  <si>
+    <t>|2|7|3|0|0|13|-1|8|3|0</t>
+  </si>
+  <si>
+    <t>|5|0|-5</t>
+  </si>
+  <si>
+    <t>1|7</t>
+  </si>
+  <si>
+    <t>|R|R|R|P|R|R|R|P|</t>
+  </si>
+  <si>
+    <t>|3|1|4|0|7|-1|2|0|</t>
+  </si>
+  <si>
+    <t>12|6</t>
+  </si>
+  <si>
+    <t>|R|R|P|P|R|</t>
+  </si>
+  <si>
+    <t>|25|3|8|1|37|</t>
   </si>
 </sst>
 </file>
@@ -215,7 +329,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,6 +507,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -556,8 +682,22 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -913,20 +1053,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M3:M4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" customWidth="1"/>
     <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" customWidth="1"/>
+    <col min="19" max="19" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -954,8 +1108,35 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -986,8 +1167,36 @@
       <c r="J2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="2" t="str">
+        <f>J2</f>
+        <v>ALA</v>
+      </c>
+      <c r="L2" s="2">
+        <v>2</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1018,8 +1227,36 @@
       <c r="J3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="2" t="str">
+        <f>I3</f>
+        <v>CLEM</v>
+      </c>
+      <c r="L3" s="2">
+        <v>4</v>
+      </c>
+      <c r="M3" s="2">
+        <v>3</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1050,8 +1287,36 @@
       <c r="J4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="2" t="str">
+        <f>J4</f>
+        <v>ALA</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2</v>
+      </c>
+      <c r="M4" s="2">
+        <v>3</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1082,8 +1347,36 @@
       <c r="J5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="2" t="str">
+        <f>I5</f>
+        <v>CLEM</v>
+      </c>
+      <c r="L5" s="2">
+        <v>3</v>
+      </c>
+      <c r="M5" s="2">
+        <v>3</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1114,8 +1407,36 @@
       <c r="J6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="2" t="str">
+        <f>J6</f>
+        <v>ALA</v>
+      </c>
+      <c r="L6" s="2">
+        <v>4</v>
+      </c>
+      <c r="M6" s="2">
+        <v>6</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1146,8 +1467,36 @@
       <c r="J7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="2" t="str">
+        <f>I7</f>
+        <v>CLEM</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2">
+        <v>2</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1178,8 +1527,36 @@
       <c r="J8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="2" t="str">
+        <f>J8</f>
+        <v>ALA</v>
+      </c>
+      <c r="L8" s="2">
+        <v>2</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="S8" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1210,8 +1587,36 @@
       <c r="J9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="2" t="str">
+        <f>I9</f>
+        <v>CLEM</v>
+      </c>
+      <c r="L9" s="2">
+        <v>2</v>
+      </c>
+      <c r="M9" s="2">
+        <v>6</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1242,8 +1647,36 @@
       <c r="J10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="2" t="str">
+        <f>J10</f>
+        <v>ALA</v>
+      </c>
+      <c r="L10" s="2">
+        <v>2</v>
+      </c>
+      <c r="M10" s="2">
+        <v>3</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S10" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1274,8 +1707,17 @@
       <c r="J11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1306,8 +1748,17 @@
       <c r="J12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1338,8 +1789,17 @@
       <c r="J13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1370,8 +1830,17 @@
       <c r="J14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1402,8 +1871,17 @@
       <c r="J15" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1434,8 +1912,17 @@
       <c r="J16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1466,8 +1953,17 @@
       <c r="J17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1498,8 +1994,17 @@
       <c r="J18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1530,8 +2035,17 @@
       <c r="J19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1562,8 +2076,17 @@
       <c r="J20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1594,8 +2117,17 @@
       <c r="J21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1626,8 +2158,17 @@
       <c r="J22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1658,8 +2199,17 @@
       <c r="J23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1690,8 +2240,17 @@
       <c r="J24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1722,8 +2281,17 @@
       <c r="J25" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1754,8 +2322,17 @@
       <c r="J26" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1786,8 +2363,17 @@
       <c r="J27" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1818,8 +2404,17 @@
       <c r="J28" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1850,8 +2445,17 @@
       <c r="J29" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1882,8 +2486,17 @@
       <c r="J30" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1914,8 +2527,17 @@
       <c r="J31" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1946,8 +2568,17 @@
       <c r="J32" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1978,8 +2609,17 @@
       <c r="J33" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2010,8 +2650,17 @@
       <c r="J34" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2042,8 +2691,17 @@
       <c r="J35" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2074,8 +2732,18 @@
       <c r="J36" t="s">
         <v>11</v>
       </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Game_400876570_CLEM_ALA_.xlsx
+++ b/Data/Game_400876570_CLEM_ALA_.xlsx
@@ -1055,7 +1055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -1207,7 +1207,7 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>183</v>
@@ -1267,7 +1267,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E4">
         <v>58</v>
@@ -1327,7 +1327,7 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>177</v>
@@ -1387,7 +1387,7 @@
         <v>9</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>236</v>
@@ -1567,7 +1567,7 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>241</v>
@@ -1627,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="E10">
         <v>84</v>
@@ -1728,7 +1728,7 @@
         <v>5</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -1769,7 +1769,7 @@
         <v>7</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="E13">
         <v>93</v>
@@ -1810,7 +1810,7 @@
         <v>5</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>105</v>
@@ -1851,7 +1851,7 @@
         <v>5</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>116</v>
@@ -1933,7 +1933,7 @@
         <v>6</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>45</v>
@@ -2097,7 +2097,7 @@
         <v>7</v>
       </c>
       <c r="D21">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="E21">
         <v>191</v>
@@ -2179,7 +2179,7 @@
         <v>4</v>
       </c>
       <c r="D23">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="E23">
         <v>63</v>
@@ -2261,7 +2261,7 @@
         <v>5</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>186</v>
@@ -2302,7 +2302,7 @@
         <v>4</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="E26">
         <v>61</v>
@@ -2343,7 +2343,7 @@
         <v>9</v>
       </c>
       <c r="D27">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="E27">
         <v>173</v>
@@ -2384,7 +2384,7 @@
         <v>4</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>106</v>
@@ -2507,7 +2507,7 @@
         <v>6</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E31">
         <v>84</v>
@@ -2589,7 +2589,7 @@
         <v>6</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="E33">
         <v>115</v>
@@ -2630,7 +2630,7 @@
         <v>6</v>
       </c>
       <c r="D34">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>151</v>
@@ -2671,7 +2671,7 @@
         <v>9</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="E35">
         <v>126</v>
